--- a/pred_ohlcv/54_21/2020-01-13 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 AMO ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-11580693.74660001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-11563742.22160001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-12686596.83560001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-13767072.63860001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-13131390.45960001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-16694896.83760001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-17588905.86760001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-15080448.00560001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-14851602.42160001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-15754087.21460001</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-16826087.25460001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-16792184.20560002</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-14741417.51160002</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-16078818.76960002</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-17244052.19560001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-15849973.18460001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-16642273.06660001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-17782079.20560001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-16752457.97760001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-49641958.78730003</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-48671667.89530003</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-49819949.79630003</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-51498502.97020003</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-50392599.88020003</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-48879860.19620003</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-47960423.87920003</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-50698088.82690003</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-49473525.06390003</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-49187316.53681895</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-50717007.74581895</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-49289025.68581895</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-47988180.06181895</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-48755052.65681895</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-48780479.94381895</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-51616067.95419439</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-53957210.35219438</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-52546179.81719439</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-51228382.66819439</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-52211053.41119439</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-52389044.42119439</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-53732268.85719439</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-54999211.43219439</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-58262012.1481944</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-61803708.37949441</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-66633898.52273225</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 AMO ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-14305099.64860001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-15699178.65860001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-17025451.57060001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-17851654.50160001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-16694896.83760001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-17588905.86760001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-15754087.21460001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-16826087.25460001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-16792184.20560002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-14741417.51160002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-16078818.76960002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-17244052.19560001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-16642273.06660001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-50832619.50030003</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-49473525.06390003</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-50717007.74581895</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-49289025.68581895</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-47988180.06181895</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-48755052.65681895</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-49504973.72681895</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-48780479.94381895</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-50259316.57781895</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-51500831.86581896</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-52564356.14381895</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-51616067.95419439</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-51912719.63719439</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-52537704.05419438</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-53957210.35219438</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-52546179.81719439</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-51228382.66819439</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-52211053.41119439</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-52389044.42119439</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-53732268.85719439</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-54999211.43219439</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-58262012.1481944</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-61803708.37949441</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-66335142.56553224</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-66633898.52273225</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
